--- a/biology/Médecine/François_Bellocq/François_Bellocq.xlsx
+++ b/biology/Médecine/François_Bellocq/François_Bellocq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bellocq</t>
+          <t>François_Bellocq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Bellocq (1946-1993[1]) est un médecin français, adepte du « rééquilibrage hormonal », souvent assimilé à du dopage, dans les années 1970. De 1974 à 1979, il fut médecin de l'équipe Peugeot.
-En 1976, il soutient une thèse sur la détérioration du profil hormonal chez le cycliste professionnel[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Bellocq (1946-1993) est un médecin français, adepte du « rééquilibrage hormonal », souvent assimilé à du dopage, dans les années 1970. De 1974 à 1979, il fut médecin de l'équipe Peugeot.
+En 1976, il soutient une thèse sur la détérioration du profil hormonal chez le cycliste professionnel.
 Il meurt d'une crise cardiaque, à l'âge de 46 ans.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bellocq</t>
+          <t>François_Bellocq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sport et dopage : la grande hypocrisie, avec la collaboration de Serge Bressan, éditions du Félin, 1991.</t>
         </is>
